--- a/替代excel/test.xlsx
+++ b/替代excel/test.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leah/Documents/CS/Jupyter/projects/替代excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16780262-2CF3-C34C-B6CF-4F4E3341B6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD23C43-E38F-2548-821C-6A32F6482E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="3420" windowWidth="22760" windowHeight="14420" activeTab="1" xr2:uid="{80135582-0818-384B-A975-D49F304ED748}"/>
+    <workbookView xWindow="2840" yWindow="480" windowWidth="22760" windowHeight="14420" activeTab="4" xr2:uid="{80135582-0818-384B-A975-D49F304ED748}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>2017年売上(百万円)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +87,94 @@
   </si>
   <si>
     <t>インド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtl</t>
+  </si>
+  <si>
+    <t>dtl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2F</t>
+  </si>
+  <si>
+    <t>F2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸器</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和项:效果</t>
+  </si>
+  <si>
+    <t>求和项:说明会</t>
+  </si>
+  <si>
+    <t>R02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リウマチ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,9 +221,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,16 +1499,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1426,6 +1534,212 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Xu" refreshedDate="44023.95426053241" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{0DFC9E18-6497-784B-9729-DDD4BB6B42D1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:I9" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="a" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ATC1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ATC2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="650"/>
+    </cacheField>
+    <cacheField name="dtl" numFmtId="0">
+      <sharedItems count="2">
+        <s v="F2F"/>
+        <s v="e" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="月" numFmtId="17">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-01-01T00:00:00" maxDate="2020-03-02T00:00:00" count="4">
+        <d v="2019-01-01T00:00:00"/>
+        <d v="2019-10-01T00:00:00"/>
+        <d v="2020-03-01T00:00:00"/>
+        <d v="2020-02-01T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="呼吸器" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="感染症" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="效果" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="说明会" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <s v="日本"/>
+    <s v="R01"/>
+    <n v="650"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="米国"/>
+    <s v="R01"/>
+    <n v="300"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="欧州"/>
+    <s v="R01"/>
+    <n v="400"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="日本"/>
+    <s v="R01"/>
+    <n v="650"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="米国"/>
+    <s v="R01"/>
+    <n v="300"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="欧州"/>
+    <s v="R01"/>
+    <n v="400"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{938337FC-24DC-F94C-9235-AA4BA85242E3}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="17" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="求和项:效果" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="求和项:说明会" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1728,7 +2042,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1837,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EADCA63-0B70-DD4D-BCB2-2438670F1E90}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1986,15 +2300,527 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC757EC-EDF7-2049-9310-377382866D6E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB807A6E-6FA6-004F-B0EA-BF6288A93EB6}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>43739</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>43891</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC757EC-EDF7-2049-9310-377382866D6E}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" customHeight="1">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>650</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43466</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43739</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43891</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>650</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43891</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43862</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43891</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16300316-3766-E54C-9920-8CD586342913}">
+  <dimension ref="A3:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>650</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43466</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43739</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43891</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>650</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43891</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43862</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43891</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
